--- a/biology/Botanique/Corémie/Corémie.xlsx
+++ b/biology/Botanique/Corémie/Corémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cor%C3%A9mie</t>
+          <t>Corémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Synnema
-Une corémie, ou synnema, est chez certains champignons (Fungi) une petite colonne non anguleuse composée d'un faisceau d'hyphes dressé et formant un conidiome, c'est-à-dire un regroupement de plusieurs conidiophores. Ce genre de structure est lié à la reproduction végétative car il produit des conidies. La corémie est dite « déterminée » lorsque la zone fertile est située dans la partie apicale de la colonne et « indéterminée » lorsque la zone fertile est située dans toutes les parties. Il existe aussi des corémies composées dont l'axe principal porte des ramifications latérales fertiles[1].
-Les corémies sont notamment présentes chez certains deutéromycètes[2]. Elles sont aussi présentes chez l'agent de la graphiose de l'orme, Graphium ulmi.
+Une corémie, ou synnema, est chez certains champignons (Fungi) une petite colonne non anguleuse composée d'un faisceau d'hyphes dressé et formant un conidiome, c'est-à-dire un regroupement de plusieurs conidiophores. Ce genre de structure est lié à la reproduction végétative car il produit des conidies. La corémie est dite « déterminée » lorsque la zone fertile est située dans la partie apicale de la colonne et « indéterminée » lorsque la zone fertile est située dans toutes les parties. Il existe aussi des corémies composées dont l'axe principal porte des ramifications latérales fertiles.
+Les corémies sont notamment présentes chez certains deutéromycètes. Elles sont aussi présentes chez l'agent de la graphiose de l'orme, Graphium ulmi.
 	Corémies
 			Corémie de Gibellula leiopus.
 			Différentes formes de corémies.
